--- a/AAII_Financials/Quarterly/IHS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IHS_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/IHS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IHS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
   <si>
     <t>IHS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>415600</v>
+      </c>
+      <c r="E8" s="3">
         <v>400500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>763600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1403100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>368300</v>
+      </c>
+      <c r="I8" s="3">
         <v>664100</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>234400</v>
+      </c>
+      <c r="E9" s="3">
         <v>273000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>397200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>810800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>199400</v>
+      </c>
+      <c r="I9" s="3">
         <v>422600</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>181200</v>
+      </c>
+      <c r="E10" s="3">
         <v>127500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>366400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>592300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>168900</v>
+      </c>
+      <c r="I10" s="3">
         <v>241500</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +823,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,66 +885,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>2800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>27600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>13200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
         <v>5800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>9200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3">
         <v>4100</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,66 +962,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>337000</v>
+      </c>
+      <c r="E17" s="3">
         <v>344800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>509600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1071200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>259200</v>
+      </c>
+      <c r="I17" s="3">
         <v>556200</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E18" s="3">
         <v>55700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>254000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>331900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>109100</v>
+      </c>
+      <c r="I18" s="3">
         <v>107900</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,153 +1040,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-58700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-44100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-275100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>-96600</v>
+      </c>
+      <c r="I20" s="3">
         <v>-260400</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-121400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-87600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>393800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>465400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>-111600</v>
+      </c>
+      <c r="I21" s="3">
         <v>68500</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
         <v>93200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>209600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
         <v>103700</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-121800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>116600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-152900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-256200</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-49600</v>
+      </c>
+      <c r="E24" s="3">
         <v>27500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>40000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>169800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>32600</v>
+      </c>
+      <c r="I24" s="3">
         <v>96700</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1230,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-72300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-30400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>76600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-322700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-352900</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-73100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-30000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>77300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-322000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-352500</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,66 +1422,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200500</v>
+      </c>
+      <c r="E32" s="3">
         <v>58700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>44100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>275100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>96600</v>
+      </c>
+      <c r="I32" s="3">
         <v>260400</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-73100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-30000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>77300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-322000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-352500</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1518,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-73100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-30000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>77300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-322000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-352500</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,20 +1617,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>916500</v>
+      </c>
+      <c r="E41" s="3">
         <v>501500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>541600</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,8 +1647,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,20 +1679,23 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>469300</v>
+      </c>
+      <c r="E43" s="3">
         <v>341100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>277300</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1619,20 +1711,23 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E44" s="3">
         <v>38800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>36000</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,8 +1743,11 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1657,11 +1755,11 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>43900</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1677,20 +1775,23 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1427800</v>
+      </c>
+      <c r="E46" s="3">
         <v>881500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>898900</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1706,20 +1807,23 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>69500</v>
+      </c>
+      <c r="E47" s="3">
         <v>59800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>17400</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1735,20 +1839,23 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2229500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2004800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2022100</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,20 +1871,23 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1570700</v>
+      </c>
+      <c r="E49" s="3">
         <v>1453800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1514100</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1793,8 +1903,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,20 +1967,23 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>176200</v>
+      </c>
+      <c r="E52" s="3">
         <v>170800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>231100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,8 +1999,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,20 +2031,23 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5473700</v>
+      </c>
+      <c r="E54" s="3">
         <v>4570600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4683600</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,20 +2093,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>499400</v>
+      </c>
+      <c r="E57" s="3">
         <v>461900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>301000</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1993,20 +2123,23 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>258200</v>
+      </c>
+      <c r="E58" s="3">
         <v>216600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>272500</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,20 +2155,23 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>72900</v>
+      </c>
+      <c r="E59" s="3">
         <v>76800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>192200</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2051,20 +2187,23 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>830600</v>
+      </c>
+      <c r="E60" s="3">
         <v>755300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>765700</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2080,20 +2219,23 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2727000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2306500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2330000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2109,20 +2251,23 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>190100</v>
+      </c>
+      <c r="E62" s="3">
         <v>268200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>265800</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,20 +2379,23 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3890600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3343900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3375900</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2489,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,20 +2553,23 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3640500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3304200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3223100</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,20 +2681,23 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1583000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1226700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1307800</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2745,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-73100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-30000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>77300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-322000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-352500</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,37 +2830,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3">
         <v>183900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>408700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3">
         <v>221000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3020,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>181900</v>
+      </c>
+      <c r="E89" s="3">
         <v>198900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>369400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>635300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>200300</v>
+      </c>
+      <c r="I89" s="3">
         <v>301400</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,37 +3068,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-3400</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +3162,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-469300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-77000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-331600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-758500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-626600</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,91 +3336,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>713600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-143000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-46300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-128100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>99300</v>
+      </c>
+      <c r="I100" s="3">
         <v>-191300</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-19000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-35300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-62000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="I101" s="3">
         <v>-23200</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>415000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-40200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-43800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-313400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>221100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-539700</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IHS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IHS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
   <si>
     <t>IHS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,166 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>446100</v>
+      </c>
+      <c r="E8" s="3">
         <v>415600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>400500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>763600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1403100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>368300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>664100</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>234400</v>
+        <v>245700</v>
       </c>
       <c r="E9" s="3">
-        <v>273000</v>
+        <v>227600</v>
       </c>
       <c r="F9" s="3">
+        <v>231400</v>
+      </c>
+      <c r="G9" s="3">
         <v>397200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>810800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>199400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>422600</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>181200</v>
+        <v>200400</v>
       </c>
       <c r="E10" s="3">
-        <v>127500</v>
+        <v>188000</v>
       </c>
       <c r="F10" s="3">
+        <v>169100</v>
+      </c>
+      <c r="G10" s="3">
         <v>366400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>592300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>168900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>241500</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,8 +837,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -856,8 +870,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,72 +905,81 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6700</v>
       </c>
       <c r="F14" s="3">
+        <v>41600</v>
+      </c>
+      <c r="G14" s="3">
         <v>2800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>27600</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>13200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>9400</v>
       </c>
       <c r="F15" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G15" s="3">
         <v>5800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>9200</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
         <v>4100</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,72 +989,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>334800</v>
+      </c>
+      <c r="E17" s="3">
         <v>337000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>344800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>509600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1071200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>259200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>556200</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E18" s="3">
         <v>78600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>55700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>254000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>331900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>109100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>107900</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,168 +1074,184 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-200500</v>
+        <v>-12500</v>
       </c>
       <c r="E20" s="3">
-        <v>-58700</v>
+        <v>-136300</v>
       </c>
       <c r="F20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G20" s="3">
         <v>-44100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-275100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-96600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-260400</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-121400</v>
+        <v>203900</v>
       </c>
       <c r="E21" s="3">
-        <v>-87600</v>
+        <v>42000</v>
       </c>
       <c r="F21" s="3">
+        <v>151100</v>
+      </c>
+      <c r="G21" s="3">
         <v>393800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>465400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-111600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>68500</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>64100</v>
       </c>
       <c r="F22" s="3">
+        <v>54800</v>
+      </c>
+      <c r="G22" s="3">
         <v>93200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>209600</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
         <v>103700</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-121800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>116600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-152900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-256200</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-49600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>27500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>40000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>169800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>32600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>96700</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,72 +1282,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-72300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-30400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>76600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-322700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-20000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-352900</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-73100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-30000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>77300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-322000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-20000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-352500</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1387,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1422,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1457,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,72 +1492,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>200500</v>
+        <v>12500</v>
       </c>
       <c r="E32" s="3">
-        <v>58700</v>
+        <v>136300</v>
       </c>
       <c r="F32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G32" s="3">
         <v>44100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>275100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>96600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>260400</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-73100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-30000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>77300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-322000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-20000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-352500</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,77 +1597,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-73100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-30000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>77300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-322000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-20000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-352500</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1689,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,23 +1704,24 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>508600</v>
+      </c>
+      <c r="E41" s="3">
         <v>916500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>501500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>541600</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,8 +1737,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1682,23 +1772,26 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>469300</v>
+        <v>578400</v>
       </c>
       <c r="E43" s="3">
-        <v>341100</v>
+        <v>428400</v>
       </c>
       <c r="F43" s="3">
+        <v>298200</v>
+      </c>
+      <c r="G43" s="3">
         <v>277300</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1714,23 +1807,26 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E44" s="3">
         <v>42000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>38800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>36000</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1746,23 +1842,26 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>52200</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>40800</v>
       </c>
       <c r="F45" s="3">
+        <v>42900</v>
+      </c>
+      <c r="G45" s="3">
         <v>43900</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1778,23 +1877,26 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1178800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1427800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>881500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>898900</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,23 +1912,26 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>69500</v>
+        <v>89300</v>
       </c>
       <c r="E47" s="3">
-        <v>59800</v>
+        <v>21400</v>
       </c>
       <c r="F47" s="3">
+        <v>17000</v>
+      </c>
+      <c r="G47" s="3">
         <v>17400</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1842,23 +1947,26 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2464700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2229500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2004800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2022100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1874,23 +1982,26 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1918900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1570700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1453800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1514100</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,8 +2017,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2052,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,23 +2087,26 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>176200</v>
+        <v>109900</v>
       </c>
       <c r="E52" s="3">
-        <v>170800</v>
+        <v>224200</v>
       </c>
       <c r="F52" s="3">
+        <v>213600</v>
+      </c>
+      <c r="G52" s="3">
         <v>231100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,8 +2122,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,23 +2157,26 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5761600</v>
+      </c>
+      <c r="E54" s="3">
         <v>5473700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4570600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4683600</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2066,8 +2192,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2209,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,23 +2224,24 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>499400</v>
+        <v>367200</v>
       </c>
       <c r="E57" s="3">
-        <v>461900</v>
+        <v>342800</v>
       </c>
       <c r="F57" s="3">
+        <v>314800</v>
+      </c>
+      <c r="G57" s="3">
         <v>301000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,23 +2257,26 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>312300</v>
+      </c>
+      <c r="E58" s="3">
         <v>258200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>216600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>272500</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2158,23 +2292,26 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>72900</v>
+        <v>264900</v>
       </c>
       <c r="E59" s="3">
-        <v>76800</v>
+        <v>229500</v>
       </c>
       <c r="F59" s="3">
+        <v>223900</v>
+      </c>
+      <c r="G59" s="3">
         <v>192200</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,23 +2327,26 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>944300</v>
+      </c>
+      <c r="E60" s="3">
         <v>830600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>755300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>765700</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2222,23 +2362,26 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2748000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2727000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2306500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2330000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2254,23 +2397,26 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>193900</v>
+      </c>
+      <c r="E62" s="3">
         <v>190100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>268200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>265800</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,8 +2432,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2467,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2502,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,23 +2537,26 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4027600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3890600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3343900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3375900</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2572,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2589,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2622,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2657,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2524,8 +2692,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,23 +2727,26 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3576000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3640500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3304200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3223100</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2588,8 +2762,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2797,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +2832,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,23 +2867,26 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1734000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1583000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1226700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1307800</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2716,8 +2902,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,77 +2937,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-73100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-30000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>77300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-322000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-20000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-352500</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,40 +3029,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>105100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>99700</v>
       </c>
       <c r="F83" s="3">
+        <v>99300</v>
+      </c>
+      <c r="G83" s="3">
         <v>183900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>408700</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
         <v>221000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3097,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3132,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3167,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3202,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,40 +3237,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>148100</v>
+      </c>
+      <c r="E89" s="3">
         <v>181900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>198900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>369400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>635300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>200300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>301400</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,40 +3289,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3400</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3357,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,40 +3392,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-469300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-77000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-331600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-758500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-64000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-626600</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3444,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3477,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3512,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3547,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,100 +3582,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="E100" s="3">
         <v>713600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-143000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-46300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-128100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>99300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-191300</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-11200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-19000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-35300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-62000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-14500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-23200</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-407900</v>
+      </c>
+      <c r="E102" s="3">
         <v>415000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-40200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-43800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-313400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>221100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-539700</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IHS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IHS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
   <si>
     <t>IHS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,179 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>467700</v>
+      </c>
+      <c r="E8" s="3">
         <v>446100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>415600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>400500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>763600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1403100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>368300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>664100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>274200</v>
+      </c>
+      <c r="E9" s="3">
         <v>245700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>227600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>231400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>397200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>810800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>199400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>422600</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>193500</v>
+      </c>
+      <c r="E10" s="3">
         <v>200400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>188000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>169100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>366400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>592300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>168900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>241500</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +851,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,8 +887,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,78 +925,87 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>2200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>41600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>27600</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>13200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E15" s="3">
         <v>4900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>9200</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
         <v>4100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,78 +1016,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>371200</v>
+      </c>
+      <c r="E17" s="3">
         <v>334800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>337000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>344800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>509600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1071200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>259200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>556200</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>96500</v>
+      </c>
+      <c r="E18" s="3">
         <v>111300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>78600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>55700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>254000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>331900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>109100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>107900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,183 +1108,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-185200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-12500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-136300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-44100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-275100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-96600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-260400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="E21" s="3">
         <v>203900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>42000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>151100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>393800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>465400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-111600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>68500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>71800</v>
+      </c>
+      <c r="E22" s="3">
         <v>64700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>64100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>54800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>93200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>209600</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
         <v>103700</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-160500</v>
+      </c>
+      <c r="E23" s="3">
         <v>34100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-121800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>116600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-152900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>12500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-256200</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E24" s="3">
         <v>17200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-49600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>27500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>40000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>169800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>32600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>96700</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,78 +1334,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-177500</v>
+      </c>
+      <c r="E26" s="3">
         <v>16900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-72300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-30400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>76600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-322700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-352900</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-175700</v>
+      </c>
+      <c r="E27" s="3">
         <v>18300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-73100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-30000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>77300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-322000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-352500</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,78 +1562,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>185200</v>
+      </c>
+      <c r="E32" s="3">
         <v>12500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>136300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>44100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>275100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>96600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>260400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-175700</v>
+      </c>
+      <c r="E33" s="3">
         <v>18300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-73100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-30000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>77300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-322000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-352500</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,83 +1676,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-175700</v>
+      </c>
+      <c r="E35" s="3">
         <v>18300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-73100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-30000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>77300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-322000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-352500</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,26 +1791,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>567300</v>
+      </c>
+      <c r="E41" s="3">
         <v>508600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>916500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>501500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>541600</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,8 +1827,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,26 +1865,29 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>670500</v>
+      </c>
+      <c r="E43" s="3">
         <v>578400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>428400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>298200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>277300</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,26 +1903,29 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E44" s="3">
         <v>39600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>42000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>38800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>36000</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1845,26 +1941,29 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E45" s="3">
         <v>52200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>40800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>42900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>43900</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,26 +1979,29 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1342300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1178800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1427800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>881500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>898900</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,26 +2017,29 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E47" s="3">
         <v>89300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>21400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>17000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>17400</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1950,26 +2055,29 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2732800</v>
+      </c>
+      <c r="E48" s="3">
         <v>2464700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2229500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2004800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2022100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1985,26 +2093,29 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2161900</v>
+      </c>
+      <c r="E49" s="3">
         <v>1918900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1570700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1453800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1514100</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2131,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,26 +2207,29 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E52" s="3">
         <v>109900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>224200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>213600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>231100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2245,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,26 +2283,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6404400</v>
+      </c>
+      <c r="E54" s="3">
         <v>5761600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5473700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4570600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4683600</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2321,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,26 +2355,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>433300</v>
+      </c>
+      <c r="E57" s="3">
         <v>367200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>342800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>314800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>301000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,26 +2391,29 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>677100</v>
+      </c>
+      <c r="E58" s="3">
         <v>312300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>258200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>216600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>272500</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2295,26 +2429,29 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>247400</v>
+      </c>
+      <c r="E59" s="3">
         <v>264900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>229500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>223900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>192200</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,26 +2467,29 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1357900</v>
+      </c>
+      <c r="E60" s="3">
         <v>944300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>830600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>755300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>765700</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,26 +2505,29 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3064700</v>
+      </c>
+      <c r="E61" s="3">
         <v>2748000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2727000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2306500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2330000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2400,26 +2543,29 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>391500</v>
+      </c>
+      <c r="E62" s="3">
         <v>193900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>190100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>268200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>265800</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2435,8 +2581,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,26 +2695,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5039500</v>
+      </c>
+      <c r="E66" s="3">
         <v>4027600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3890600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3343900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3375900</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2733,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2695,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,26 +2901,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3945100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3576000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3640500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3304200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3223100</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,26 +3053,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1364800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1734000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1583000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1226700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1307800</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,83 +3129,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-175700</v>
+      </c>
+      <c r="E81" s="3">
         <v>18300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-73100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-30000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>77300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-322000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-352500</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,43 +3228,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
         <v>105100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>99700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>99300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>183900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>408700</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
         <v>221000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,43 +3454,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>191300</v>
+      </c>
+      <c r="E89" s="3">
         <v>148100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>181900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>198900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>369400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>635300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>200300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>301400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,43 +3510,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-24300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3400</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,43 +3622,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-617500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-469300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-77000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-331600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-758500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-64000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-626600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,109 +3828,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>547200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-57900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>713600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-143000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-46300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-128100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>99300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-191300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="E101" s="3">
         <v>2100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-11200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-19000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-35300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-62000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-14500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-23200</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>58700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-407900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>415000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-40200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-43800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-313400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>221100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-539700</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IHS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IHS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
   <si>
     <t>IHS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,192 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>521300</v>
+      </c>
+      <c r="E8" s="3">
         <v>467700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>446100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>415600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>400500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>763600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1403100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>368300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>664100</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>296900</v>
+      </c>
+      <c r="E9" s="3">
         <v>274200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>245700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>227600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>231400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>397200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>810800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>199400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>422600</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>224400</v>
+      </c>
+      <c r="E10" s="3">
         <v>193500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>188000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>169100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>366400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>592300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>168900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>241500</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +865,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,84 +945,93 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>2200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>41600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>27600</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>13200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E15" s="3">
         <v>2800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>9400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9200</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
         <v>4100</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,84 +1043,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>389900</v>
+      </c>
+      <c r="E17" s="3">
         <v>371200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>334800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>337000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>344800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>509600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1071200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>259200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>556200</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>131400</v>
+      </c>
+      <c r="E18" s="3">
         <v>96500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>111300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>78600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>55700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>254000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>331900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>109100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>107900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,198 +1142,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-139400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-185200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-12500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-136300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-44100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-275100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-96600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-260400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-79000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>203900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>42000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>151100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>393800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>465400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-111600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>68500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>85500</v>
+      </c>
+      <c r="E22" s="3">
         <v>71800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>64700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>64100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>54800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>93200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>209600</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
         <v>103700</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-93500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-160500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>34100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-121800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>116600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-152900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>12500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-256200</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E24" s="3">
         <v>17000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>17200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-49600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>27500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>40000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>169800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>32600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>96700</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,84 +1386,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-52500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-177500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-72300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-30400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>76600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-322700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-352900</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-175700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>18300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-73100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-30000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>77300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-322000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-20000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-352500</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,84 +1632,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>139400</v>
+      </c>
+      <c r="E32" s="3">
         <v>185200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>12500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>136300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>44100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>275100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>96600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>260400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-175700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>18300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-73100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-30000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>77300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-322000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-352500</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,89 +1755,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-175700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>18300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-73100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-30000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>77300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-322000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-352500</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,29 +1878,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>530500</v>
+      </c>
+      <c r="E41" s="3">
         <v>567300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>508600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>916500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>501500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>541600</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,8 +1917,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1868,29 +1958,32 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>637200</v>
+      </c>
+      <c r="E43" s="3">
         <v>670500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>578400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>428400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>298200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>277300</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,29 +1999,32 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E44" s="3">
         <v>61600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>39600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>42000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>38800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>36000</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1944,29 +2040,32 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E45" s="3">
         <v>42900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>52200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>40800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>42900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>43900</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,29 +2081,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1287600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1342300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1178800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1427800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>881500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>898900</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,29 +2122,32 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E47" s="3">
         <v>46300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>89300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>21400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>17000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>17400</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2058,29 +2163,32 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2695500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2732800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2464700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2229500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2004800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2022100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,29 +2204,32 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2078100</v>
+      </c>
+      <c r="E49" s="3">
         <v>2161900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1918900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1570700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1453800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1514100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,29 +2327,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>131500</v>
+      </c>
+      <c r="E52" s="3">
         <v>121000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>109900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>224200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>213600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>231100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,29 +2409,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6237600</v>
+      </c>
+      <c r="E54" s="3">
         <v>6404400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5761600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5473700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4570600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4683600</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,29 +2486,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>374300</v>
+      </c>
+      <c r="E57" s="3">
         <v>433300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>367200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>342800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>314800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>301000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2394,29 +2525,32 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>784100</v>
+      </c>
+      <c r="E58" s="3">
         <v>677100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>312300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>258200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>216600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>272500</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2432,29 +2566,32 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>288000</v>
+      </c>
+      <c r="E59" s="3">
         <v>247400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>264900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>229500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>223900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>192200</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,29 +2607,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1446400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1357900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>944300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>830600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>755300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>765700</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2508,29 +2648,32 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2980700</v>
+      </c>
+      <c r="E61" s="3">
         <v>3064700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2748000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2727000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2306500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2330000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2546,29 +2689,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>314900</v>
+      </c>
+      <c r="E62" s="3">
         <v>391500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>193900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>190100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>268200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>265800</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,29 +2853,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4962800</v>
+      </c>
+      <c r="E66" s="3">
         <v>5039500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4027600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3890600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3343900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3375900</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,29 +3075,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4035200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3945100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3576000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3640500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3304200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3223100</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,29 +3239,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1274800</v>
+      </c>
+      <c r="E76" s="3">
         <v>1364800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1734000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1583000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1226700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1307800</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,89 +3321,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-175700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>18300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-73100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-30000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>77300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-322000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-352500</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,46 +3427,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3">
         <v>105100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>99700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>99300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>183900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>408700</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>221000</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,46 +3671,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>286200</v>
+      </c>
+      <c r="E89" s="3">
         <v>191300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>148100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>181900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>198900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>369400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>635300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>200300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>301400</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,46 +3731,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-24300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3400</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,46 +3852,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-239300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-617500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-469300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-77000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-331600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-758500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-64000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-626600</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,118 +4074,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-25700</v>
+      </c>
+      <c r="E100" s="3">
         <v>547200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-57900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>713600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-143000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-46300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-128100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>99300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-191300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-58100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-62300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-11200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-19000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-35300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-62000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-14500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-23200</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E102" s="3">
         <v>58700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-407900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>415000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-40200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-43800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-313400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>221100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-539700</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IHS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IHS_QTR_FIN.xlsx
@@ -3738,25 +3738,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-27900</v>
+        <v>-174100</v>
       </c>
       <c r="E91" s="3">
-        <v>-12300</v>
+        <v>-146800</v>
       </c>
       <c r="F91" s="3">
-        <v>-24300</v>
+        <v>-117000</v>
       </c>
       <c r="G91" s="3">
-        <v>-3100</v>
+        <v>-150600</v>
       </c>
       <c r="H91" s="3">
-        <v>-2400</v>
+        <v>-81600</v>
       </c>
       <c r="I91" s="3">
-        <v>-8200</v>
+        <v>-170300</v>
       </c>
       <c r="J91" s="3">
-        <v>-7800</v>
+        <v>-65300</v>
       </c>
       <c r="K91" s="3">
         <v>-2100</v>

--- a/AAII_Financials/Quarterly/IHS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IHS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
   <si>
     <t>IHS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,230 @@
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>546200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>602500</v>
+      </c>
+      <c r="F8" s="3">
+        <v>526200</v>
+      </c>
+      <c r="G8" s="3">
         <v>521300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>467700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>446100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>415600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>400500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>763600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>1403100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>368300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>664100</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>278100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>302700</v>
+      </c>
+      <c r="F9" s="3">
+        <v>297500</v>
+      </c>
+      <c r="G9" s="3">
         <v>296900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="H9" s="3">
         <v>274200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I9" s="3">
         <v>245700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J9" s="3">
         <v>227600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <v>231400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>397200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>810800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>199400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>422600</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>268100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>299800</v>
+      </c>
+      <c r="F10" s="3">
+        <v>228700</v>
+      </c>
+      <c r="G10" s="3">
         <v>224400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>193500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>200400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>188000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>169100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>366400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>592300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>168900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>241500</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,8 +904,11 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,8 +948,17 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,90 +998,117 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="E14" s="3">
+        <v>4100</v>
       </c>
       <c r="F14" s="3">
+        <v>38200</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>2200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="J14" s="3">
         <v>6700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="K14" s="3">
         <v>41600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>2800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <v>27600</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
         <v>13200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G15" s="3">
         <v>3200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="H15" s="3">
         <v>2800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="I15" s="3">
         <v>4900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="J15" s="3">
         <v>9400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="K15" s="3">
         <v>2900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>5800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>9200</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3">
         <v>4100</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,90 +1121,111 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>379600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>407600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>550300</v>
+      </c>
+      <c r="G17" s="3">
         <v>389900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>371200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>334800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>337000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>344800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>509600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>1071200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>259200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>556200</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>166600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>194900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="G18" s="3">
         <v>131400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>96500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>111300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>78600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>55700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>254000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>331900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>109100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>107900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,213 +1241,261 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1357600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-72700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-198400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-139400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
         <v>-185200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>-12500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>-136300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>-3900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-44100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-275100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>-96600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-260400</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1193600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>241300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>126500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>-79000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>203900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>42000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>151100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>393800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>465400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>-111600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>68500</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>99300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>98700</v>
+      </c>
+      <c r="G22" s="3">
         <v>85500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="H22" s="3">
         <v>71800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="I22" s="3">
         <v>64700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="J22" s="3">
         <v>64100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="K22" s="3">
         <v>54800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>93200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>209600</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3">
         <v>103700</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1191000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>22900</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-321200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-93500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-160500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>34100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-121800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-2900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>116600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-152900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>12500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-256200</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-65700</v>
+      </c>
+      <c r="G24" s="3">
         <v>-41000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="H24" s="3">
         <v>17000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="I24" s="3">
         <v>17200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="J24" s="3">
         <v>-49600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="K24" s="3">
         <v>27500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>40000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>169800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>32600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>96700</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1535,117 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1248300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-255500</v>
+      </c>
+      <c r="G26" s="3">
         <v>-52500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-177500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>16900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-72300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-30400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>76600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-322700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-20000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-352900</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1244700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-254700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-46500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-175700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>18300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-73100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-30000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>77300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-322000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-20000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-352500</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1685,17 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1735,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1785,17 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,90 +1835,117 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1357600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>72700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>198400</v>
+      </c>
+      <c r="G32" s="3">
         <v>139400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
         <v>185200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>12500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>136300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>3900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>44100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>275100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>96600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>260400</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1244700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-254700</v>
+      </c>
+      <c r="G33" s="3">
         <v>-46500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-175700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>18300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-73100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-30000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>77300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-322000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-20000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-352500</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1985,122 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1244700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-254700</v>
+      </c>
+      <c r="G35" s="3">
         <v>-46500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-175700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>18300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-73100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-30000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>77300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-322000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-20000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-352500</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +2116,11 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,38 +2136,41 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>433000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>515600</v>
+      </c>
+      <c r="F41" s="3">
+        <v>514100</v>
+      </c>
+      <c r="G41" s="3">
         <v>530500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>567300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>508600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>916500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>501500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>541600</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,8 +2180,17 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,38 +2230,47 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>612500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>701900</v>
+      </c>
+      <c r="F43" s="3">
+        <v>614700</v>
+      </c>
+      <c r="G43" s="3">
         <v>637200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="H43" s="3">
         <v>670500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
         <v>578400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>428400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="K43" s="3">
         <v>298200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>277300</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,38 +2280,47 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>66200</v>
+      </c>
+      <c r="F44" s="3">
+        <v>74200</v>
+      </c>
+      <c r="G44" s="3">
         <v>70100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="H44" s="3">
         <v>61600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="I44" s="3">
         <v>39600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="J44" s="3">
         <v>42000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="K44" s="3">
         <v>38800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>36000</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,38 +2330,47 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3">
+        <v>76000</v>
+      </c>
+      <c r="F45" s="3">
         <v>49900</v>
       </c>
-      <c r="E45" s="3">
-        <v>42900</v>
-      </c>
-      <c r="F45" s="3">
-        <v>52200</v>
-      </c>
       <c r="G45" s="3">
-        <v>40800</v>
+        <v>49900</v>
       </c>
       <c r="H45" s="3">
         <v>42900</v>
       </c>
       <c r="I45" s="3">
+        <v>52200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>40800</v>
+      </c>
+      <c r="K45" s="3">
+        <v>42900</v>
+      </c>
+      <c r="L45" s="3">
         <v>43900</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,38 +2380,47 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1078200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1359700</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1252900</v>
+      </c>
+      <c r="G46" s="3">
         <v>1287600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>1342300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>1178800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>1427800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>881500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>898900</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,38 +2430,47 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>131100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>48500</v>
+      </c>
+      <c r="F47" s="3">
+        <v>47200</v>
+      </c>
+      <c r="G47" s="3">
         <v>45000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="H47" s="3">
         <v>46300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="I47" s="3">
         <v>89300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="J47" s="3">
         <v>21400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="K47" s="3">
         <v>17000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>17400</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2166,38 +2480,47 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2771000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3081400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>3039400</v>
+      </c>
+      <c r="G48" s="3">
         <v>2695500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>2732800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>2464700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>2229500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>2004800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>2022100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,38 +2530,47 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1637500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1806400</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1813600</v>
+      </c>
+      <c r="G49" s="3">
         <v>2078100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
         <v>2161900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="I49" s="3">
         <v>1918900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="J49" s="3">
         <v>1570700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="K49" s="3">
         <v>1453800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>1514100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2580,17 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2630,17 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,38 +2680,47 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>66500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>197700</v>
+      </c>
+      <c r="F52" s="3">
+        <v>167600</v>
+      </c>
+      <c r="G52" s="3">
         <v>131500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="H52" s="3">
         <v>121000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="I52" s="3">
         <v>109900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="J52" s="3">
         <v>224200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="K52" s="3">
         <v>213600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>231100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2730,17 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,38 +2780,47 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5684300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6493800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>6320900</v>
+      </c>
+      <c r="G54" s="3">
         <v>6237600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>6404400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>5761600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>5473700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>4570600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>4683600</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2830,17 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2856,11 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,38 +2876,41 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>520600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>460000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>443000</v>
+      </c>
+      <c r="G57" s="3">
         <v>374300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>433300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>367200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>342800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>314800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>301000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,38 +2920,47 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>525700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>440100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>525400</v>
+      </c>
+      <c r="G58" s="3">
         <v>784100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>677100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>312300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>258200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>216600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>272500</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2569,38 +2970,47 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>109800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>300600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>298100</v>
+      </c>
+      <c r="G59" s="3">
         <v>288000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>247400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>264900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>229500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>223900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>192200</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,38 +3020,47 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1156100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1200600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1266400</v>
+      </c>
+      <c r="G60" s="3">
         <v>1446400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>1357900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>944300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>830600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>755300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>765700</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,38 +3070,47 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3532900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3617900</v>
+      </c>
+      <c r="F61" s="3">
+        <v>3423600</v>
+      </c>
+      <c r="G61" s="3">
         <v>2980700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
         <v>3064700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>2748000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>2727000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="K61" s="3">
         <v>2306500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>2330000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2692,38 +3120,47 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>244600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>261600</v>
+      </c>
+      <c r="F62" s="3">
+        <v>272300</v>
+      </c>
+      <c r="G62" s="3">
         <v>314900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="H62" s="3">
         <v>391500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="I62" s="3">
         <v>193900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="J62" s="3">
         <v>190100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="K62" s="3">
         <v>268200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>265800</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +3170,17 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +3220,17 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +3270,17 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,38 +3320,47 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5170000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5309700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>5189400</v>
+      </c>
+      <c r="G66" s="3">
         <v>4962800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>5039500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>4027600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>3890600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>3343900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>3375900</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3370,17 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3396,11 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3440,17 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3490,17 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3540,17 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,38 +3590,47 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4887100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4201300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-4180500</v>
+      </c>
+      <c r="G72" s="3">
         <v>-4035200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-3945100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-3576000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-3640500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-3304200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-3223100</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3640,17 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3690,17 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3740,17 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,38 +3790,47 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>514300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1184000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1131400</v>
+      </c>
+      <c r="G76" s="3">
         <v>1274800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>1364800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>1734000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>1583000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>1226700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>1307800</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3840,17 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3890,122 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1244700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-254700</v>
+      </c>
+      <c r="G81" s="3">
         <v>-46500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-175700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>18300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-73100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-30000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>77300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-322000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-20000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-352500</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,8 +4021,11 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3439,38 +4035,47 @@
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3">
         <v>105100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="J83" s="3">
         <v>99700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="K83" s="3">
         <v>99300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>183900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>408700</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3">
         <v>221000</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +4115,17 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +4165,17 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +4215,17 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +4265,17 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,49 +4315,67 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>243800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>235100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>281600</v>
+      </c>
+      <c r="G89" s="3">
         <v>286200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>191300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>148100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>181900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>198900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>369400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>635300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>200300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>301400</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,49 +4391,61 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-206500</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-148500</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-121500</v>
+      </c>
+      <c r="G91" s="3">
         <v>-174100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="H91" s="3">
         <v>-146800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="I91" s="3">
         <v>-117000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="J91" s="3">
         <v>-150600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="K91" s="3">
         <v>-81600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-170300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-65300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-2100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-3400</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4485,17 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,49 +4535,67 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-261900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-188200</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-160300</v>
+      </c>
+      <c r="G94" s="3">
         <v>-239300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="H94" s="3">
         <v>-617500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="I94" s="3">
         <v>-500200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="J94" s="3">
         <v>-469300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
         <v>-77000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-331600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-758500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-64000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-626600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4611,11 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4655,17 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4705,17 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4755,17 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,127 +4805,163 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-65400</v>
+      </c>
+      <c r="G100" s="3">
         <v>-25700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>547200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>-57900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>713600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>-143000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>-46300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>-128100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>99300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-191300</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-72400</v>
+      </c>
+      <c r="G101" s="3">
         <v>-58100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="H101" s="3">
         <v>-62300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="I101" s="3">
         <v>2100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="J101" s="3">
         <v>-11200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="K101" s="3">
         <v>-19000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>-35300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>-62000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="N101" s="3">
         <v>-14500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="O101" s="3">
         <v>-23200</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-82500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="G102" s="3">
         <v>-36800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>58700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>-407900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>415000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>-40200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-43800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>-313400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>221100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-539700</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3" t="s">
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
